--- a/2007-2023_ Hesap-Toplamlar/010_ 2016-23 BANKA/ytrm_2023-12_.xlsx
+++ b/2007-2023_ Hesap-Toplamlar/010_ 2016-23 BANKA/ytrm_2023-12_.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2007-2023_ Hesap-Toplamlar\010_ 2016-23 BANKA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEA12B8-6230-4F3F-A8A3-4F799848376B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="16065" windowHeight="14835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ekstre" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Ekstre" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,554 +27,521 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="156">
   <si>
-    <t xml:space="preserve">YATIRIM HESABINIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Müşteri No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yatırım Hesabı No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4****9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5800-3****9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTFÖY DURUMU (31/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kıymet Adı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiyat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cari Değer (TL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1210</t>
+    <t>YATIRIM HESABINIZ</t>
+  </si>
+  <si>
+    <t>Müşteri No</t>
+  </si>
+  <si>
+    <t>Yatırım Hesabı No</t>
+  </si>
+  <si>
+    <t>4****9</t>
+  </si>
+  <si>
+    <t>5800-3****9</t>
+  </si>
+  <si>
+    <t>PORTFÖY DURUMU (31/12/2023)</t>
+  </si>
+  <si>
+    <t>Kod</t>
+  </si>
+  <si>
+    <t>Kıymet Adı</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Fiyat</t>
+  </si>
+  <si>
+    <t>Cari Değer (TL)</t>
+  </si>
+  <si>
+    <t>1210</t>
   </si>
   <si>
     <t xml:space="preserve">TABGD-Eski                    </t>
   </si>
   <si>
-    <t xml:space="preserve">19,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117,200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.226,80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3750</t>
+    <t>19,000</t>
+  </si>
+  <si>
+    <t>117,200</t>
+  </si>
+  <si>
+    <t>2.226,80</t>
+  </si>
+  <si>
+    <t>3750</t>
   </si>
   <si>
     <t xml:space="preserve">SURGY-Eski                    </t>
   </si>
   <si>
-    <t xml:space="preserve">10,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">299,20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3760</t>
+    <t>10,000</t>
+  </si>
+  <si>
+    <t>29,920</t>
+  </si>
+  <si>
+    <t>299,20</t>
+  </si>
+  <si>
+    <t>3760</t>
   </si>
   <si>
     <t xml:space="preserve">MEGMT-Eski                    </t>
   </si>
   <si>
-    <t xml:space="preserve">13,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">290,16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3770</t>
+    <t>13,000</t>
+  </si>
+  <si>
+    <t>22,320</t>
+  </si>
+  <si>
+    <t>290,16</t>
+  </si>
+  <si>
+    <t>3770</t>
   </si>
   <si>
     <t xml:space="preserve">AVPGY-Eski                    </t>
   </si>
   <si>
-    <t xml:space="preserve">26,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.008,28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">801</t>
+    <t>26,000</t>
+  </si>
+  <si>
+    <t>38,780</t>
+  </si>
+  <si>
+    <t>1.008,28</t>
+  </si>
+  <si>
+    <t>801</t>
   </si>
   <si>
     <t xml:space="preserve">TI1-Para Piyasası Fonu        </t>
   </si>
   <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">536,383911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.819,19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPLAM CARİ DEĞER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.643,63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL BAKİYESİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.267,13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portföy durumunuzda, varsa İş Yatırım Menkul Değerler A.Ş.'deki aynı numaralı hesabınızda izlenen pay ve varantlar da gösterilmiştir. Toplam cari değer hesaplanmasına söz konusu pay ve varantların cari değeri dahil edilmekte olup varsa aynı numaralı Yatırım hesabınızın blokeli TL bakiyesi dahil edilmemektedir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*** Kullanılan Kur: USD 29,43500 ve EUR 32,56980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*** Sabit Getirili Kıymetlerde Bankamız geri alış fiyatları, hisse senetlerinde BİST kapanış fiyatları dikkate alınmıştır.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*** Dövizli borçlanma araçları nominal (adet*1.000) olarak gösterilmektedir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HESAP EKSTRESİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiş No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Açıklama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borç(-) Alacak(+) (TL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bakiye (TL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devir Bakiyesi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.830,68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2023 09:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>536,383911</t>
+  </si>
+  <si>
+    <t>26.819,19</t>
+  </si>
+  <si>
+    <t>TOPLAM CARİ DEĞER</t>
+  </si>
+  <si>
+    <t>30.643,63</t>
+  </si>
+  <si>
+    <t>TL BAKİYESİ</t>
+  </si>
+  <si>
+    <t>6.267,13</t>
+  </si>
+  <si>
+    <t>Portföy durumunuzda, varsa İş Yatırım Menkul Değerler A.Ş.'deki aynı numaralı hesabınızda izlenen pay ve varantlar da gösterilmiştir. Toplam cari değer hesaplanmasına söz konusu pay ve varantların cari değeri dahil edilmekte olup varsa aynı numaralı Yatırım hesabınızın blokeli TL bakiyesi dahil edilmemektedir.</t>
+  </si>
+  <si>
+    <t>*** Kullanılan Kur: USD 29,43500 ve EUR 32,56980</t>
+  </si>
+  <si>
+    <t>*** Sabit Getirili Kıymetlerde Bankamız geri alış fiyatları, hisse senetlerinde BİST kapanış fiyatları dikkate alınmıştır.</t>
+  </si>
+  <si>
+    <t>*** Dövizli borçlanma araçları nominal (adet*1.000) olarak gösterilmektedir.</t>
+  </si>
+  <si>
+    <t>HESAP EKSTRESİ</t>
+  </si>
+  <si>
+    <t>Tarih</t>
+  </si>
+  <si>
+    <t>Fiş No</t>
+  </si>
+  <si>
+    <t>Açıklama</t>
+  </si>
+  <si>
+    <t>Borç(-) Alacak(+) (TL)</t>
+  </si>
+  <si>
+    <t>Bakiye (TL)</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>Devir Bakiyesi</t>
+  </si>
+  <si>
+    <t>1.830,68</t>
+  </si>
+  <si>
+    <t>07/12/2023 09:33</t>
+  </si>
+  <si>
+    <t>00000000</t>
   </si>
   <si>
     <t xml:space="preserve">                              </t>
   </si>
   <si>
-    <t xml:space="preserve">Halka Arz Talebi, 20, 28.30TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-566,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.264,68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36093353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halka Arz Talebi, 20, 49.18TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-983,60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">281,08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2023 09:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36094012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cari Hesaptan Yatırım Hesabına Aktarılan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+5.181,13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.462,21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">808</t>
+    <t>Halka Arz Talebi, 20, 28.30TL</t>
+  </si>
+  <si>
+    <t>-566,00</t>
+  </si>
+  <si>
+    <t>1.264,68</t>
+  </si>
+  <si>
+    <t>36093353</t>
+  </si>
+  <si>
+    <t>Halka Arz Talebi, 20, 49.18TL</t>
+  </si>
+  <si>
+    <t>-983,60</t>
+  </si>
+  <si>
+    <t>281,08</t>
+  </si>
+  <si>
+    <t>07/12/2023 09:40</t>
+  </si>
+  <si>
+    <t>36094012</t>
+  </si>
+  <si>
+    <t>Cari Hesaptan Yatırım Hesabına Aktarılan</t>
+  </si>
+  <si>
+    <t>+5.181,13</t>
+  </si>
+  <si>
+    <t>5.462,21</t>
+  </si>
+  <si>
+    <t>808</t>
   </si>
   <si>
     <t xml:space="preserve">TIV-Kısa V.Borç. Araç.        </t>
   </si>
   <si>
-    <t xml:space="preserve">Alış, 18.207358TL , 300 Adet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.462,21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36094051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+5.238,90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.238,90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alış, 523.889871TL , 10 Adet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.238,90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2023 09:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00010001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1.576,31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.576,31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/12/2023 04:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00090001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alış İşlemi, 10.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3,01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139,31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komisyon ve BSMV Tutarı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136,30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/12/2023 14:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88888888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karşılanamayan Halka Arz Talebinden İade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+491,80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">628,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/12/2023 16:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+198,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">826,20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/12/2023 15:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36151331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+826,20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.652,40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halka Arz Talebi, 30, 55.08TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.652,40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/12/2023 15:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36151857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+21.088,49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.088,49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alış, 527.212240TL , 40 Adet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.088,49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/12/2023 15:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+220,32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220,32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/12/2023 10:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95105725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satış, 18.625761TL , 300 Adet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+5.587,73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.808,05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yatırım Hesabından Cari Hesaba Aktarılan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.587,73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/12/2023 11:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+2.086,51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.306,83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/12/2023 11:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+3.960,30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapanış Bakiyesi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*** Yatırım hesabınızda bu dönem itibarı ile TL hareketi bulunmamaktadır.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIYMET HAREKET LİSTESİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giren(+) Çıkan(-) (Adet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalan (Adet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alış İşlemi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+10,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halka Arz Alış 49.18 , 491.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halka Arz Alış 28.30 , 367.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+13,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halka Arz Alış 55.08 , 1,432.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+26,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alış, 523.889871TL , 5,238.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alış, 527.212240TL , 21,088.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alış, 18.207358TL , 5,462.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satış, 18.625761TL , 5,587.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kıymet hareket listesine, varsa İş Yatırım Menkul Değerler A.Ş.'deki aynı numaralı hesabınızda izlenen pay ve varantlara ilişkin hareketler de gösterilmiştir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saklama hesabınızda bulunan hisse senetleri ve kaydi menkul kıymet yatırım fonlarına ilişkin hesap bakiye ve güncel bilgileri, günün her saatinde MKK sicil ve şifrenizi kullanarak izleyebilirsiniz. 444 0 655 (MKK) numaralı " AloMKK Yatırımcı Çağrı Merkezi " ni telefonla arayarak Sesli Yanıt Sisteminden ya da www.mkk.com.tr adresinde " Yatırımcı Girişi " linki ile ulaşabileceğiniz MKKweb Yatırımcı internet web sitesinden her gün akşam 23:00 - sabah 08:00 saatleri arasında tüm kıymetlerinizi bloke edebilir ve bu şekilde kıymetlerinizin başka hesaplara virman edilmesi veya satılmasını önleyebilirsiniz. Koymuş olduğunuz bu blokajı günün 24 saati boyunca istediğiniz zaman kaldırabilirsiniz. AloMKK Yatırımcı Çağrı Merkezi(telefon) ve MKKweb Yatırımcı(internet) sistemini nasıl kullanacağınızı www.mkk.com.tr adresinde yer alan MKKweb Yatırımcı Kullanım Kılavuzu ve AloMKK Yatırımcı Sesli Yanıt Sistemi Kullanıcı Kılavuzu 'ndan öğrenebilirsiniz.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Türkiye İş Bankası A.Ş.   Ticaret Sicil No: 431112   Şirket Merkezi: İstanbul   www.isbank.com.tr   0 850 724 0 724</t>
+    <t>Alış, 18.207358TL , 300 Adet</t>
+  </si>
+  <si>
+    <t>-5.462,21</t>
+  </si>
+  <si>
+    <t>0,00</t>
+  </si>
+  <si>
+    <t>36094051</t>
+  </si>
+  <si>
+    <t>+5.238,90</t>
+  </si>
+  <si>
+    <t>5.238,90</t>
+  </si>
+  <si>
+    <t>Alış, 523.889871TL , 10 Adet</t>
+  </si>
+  <si>
+    <t>-5.238,90</t>
+  </si>
+  <si>
+    <t>07/12/2023 09:46</t>
+  </si>
+  <si>
+    <t>00010001</t>
+  </si>
+  <si>
+    <t>+1.576,31</t>
+  </si>
+  <si>
+    <t>1.576,31</t>
+  </si>
+  <si>
+    <t>11/12/2023 04:58</t>
+  </si>
+  <si>
+    <t>00090001</t>
+  </si>
+  <si>
+    <t>Alış İşlemi, 10.000</t>
+  </si>
+  <si>
+    <t>-3,01</t>
+  </si>
+  <si>
+    <t>139,31</t>
+  </si>
+  <si>
+    <t>Komisyon ve BSMV Tutarı</t>
+  </si>
+  <si>
+    <t>136,30</t>
+  </si>
+  <si>
+    <t>11/12/2023 14:16</t>
+  </si>
+  <si>
+    <t>88888888</t>
+  </si>
+  <si>
+    <t>Karşılanamayan Halka Arz Talebinden İade</t>
+  </si>
+  <si>
+    <t>+491,80</t>
+  </si>
+  <si>
+    <t>628,10</t>
+  </si>
+  <si>
+    <t>11/12/2023 16:23</t>
+  </si>
+  <si>
+    <t>+198,10</t>
+  </si>
+  <si>
+    <t>826,20</t>
+  </si>
+  <si>
+    <t>13/12/2023 15:13</t>
+  </si>
+  <si>
+    <t>36151331</t>
+  </si>
+  <si>
+    <t>+826,20</t>
+  </si>
+  <si>
+    <t>1.652,40</t>
+  </si>
+  <si>
+    <t>Halka Arz Talebi, 30, 55.08TL</t>
+  </si>
+  <si>
+    <t>-1.652,40</t>
+  </si>
+  <si>
+    <t>13/12/2023 15:18</t>
+  </si>
+  <si>
+    <t>36151857</t>
+  </si>
+  <si>
+    <t>+21.088,49</t>
+  </si>
+  <si>
+    <t>21.088,49</t>
+  </si>
+  <si>
+    <t>Alış, 527.212240TL , 40 Adet</t>
+  </si>
+  <si>
+    <t>-21.088,49</t>
+  </si>
+  <si>
+    <t>18/12/2023 15:50</t>
+  </si>
+  <si>
+    <t>+220,32</t>
+  </si>
+  <si>
+    <t>220,32</t>
+  </si>
+  <si>
+    <t>28/12/2023 10:57</t>
+  </si>
+  <si>
+    <t>95105725</t>
+  </si>
+  <si>
+    <t>Satış, 18.625761TL , 300 Adet</t>
+  </si>
+  <si>
+    <t>+5.587,73</t>
+  </si>
+  <si>
+    <t>5.808,05</t>
+  </si>
+  <si>
+    <t>Yatırım Hesabından Cari Hesaba Aktarılan</t>
+  </si>
+  <si>
+    <t>-5.587,73</t>
+  </si>
+  <si>
+    <t>28/12/2023 11:03</t>
+  </si>
+  <si>
+    <t>+2.086,51</t>
+  </si>
+  <si>
+    <t>2.306,83</t>
+  </si>
+  <si>
+    <t>28/12/2023 11:10</t>
+  </si>
+  <si>
+    <t>+3.960,30</t>
+  </si>
+  <si>
+    <t>31/12/2023</t>
+  </si>
+  <si>
+    <t>Kapanış Bakiyesi</t>
+  </si>
+  <si>
+    <t>*** Yatırım hesabınızda bu dönem itibarı ile TL hareketi bulunmamaktadır.</t>
+  </si>
+  <si>
+    <t>KIYMET HAREKET LİSTESİ</t>
+  </si>
+  <si>
+    <t>Giren(+) Çıkan(-) (Adet)</t>
+  </si>
+  <si>
+    <t>Kalan (Adet)</t>
+  </si>
+  <si>
+    <t>9,00</t>
+  </si>
+  <si>
+    <t>Alış İşlemi</t>
+  </si>
+  <si>
+    <t>+10,00</t>
+  </si>
+  <si>
+    <t>19,00</t>
+  </si>
+  <si>
+    <t>Halka Arz Alış 49.18 , 491.80</t>
+  </si>
+  <si>
+    <t>10,00</t>
+  </si>
+  <si>
+    <t>Halka Arz Alış 28.30 , 367.90</t>
+  </si>
+  <si>
+    <t>+13,00</t>
+  </si>
+  <si>
+    <t>13,00</t>
+  </si>
+  <si>
+    <t>Halka Arz Alış 55.08 , 1,432.08</t>
+  </si>
+  <si>
+    <t>+26,00</t>
+  </si>
+  <si>
+    <t>26,00</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Alış, 523.889871TL , 5,238.90</t>
+  </si>
+  <si>
+    <t>+10</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Alış, 527.212240TL , 21,088.49</t>
+  </si>
+  <si>
+    <t>+40</t>
+  </si>
+  <si>
+    <t>Alış, 18.207358TL , 5,462.21</t>
+  </si>
+  <si>
+    <t>+300</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Satış, 18.625761TL , 5,587.73</t>
+  </si>
+  <si>
+    <t>-300</t>
+  </si>
+  <si>
+    <t>Kıymet hareket listesine, varsa İş Yatırım Menkul Değerler A.Ş.'deki aynı numaralı hesabınızda izlenen pay ve varantlara ilişkin hareketler de gösterilmiştir.</t>
+  </si>
+  <si>
+    <t>Saklama hesabınızda bulunan hisse senetleri ve kaydi menkul kıymet yatırım fonlarına ilişkin hesap bakiye ve güncel bilgileri, günün her saatinde MKK sicil ve şifrenizi kullanarak izleyebilirsiniz. 444 0 655 (MKK) numaralı " AloMKK Yatırımcı Çağrı Merkezi " ni telefonla arayarak Sesli Yanıt Sisteminden ya da www.mkk.com.tr adresinde " Yatırımcı Girişi " linki ile ulaşabileceğiniz MKKweb Yatırımcı internet web sitesinden her gün akşam 23:00 - sabah 08:00 saatleri arasında tüm kıymetlerinizi bloke edebilir ve bu şekilde kıymetlerinizin başka hesaplara virman edilmesi veya satılmasını önleyebilirsiniz. Koymuş olduğunuz bu blokajı günün 24 saati boyunca istediğiniz zaman kaldırabilirsiniz. AloMKK Yatırımcı Çağrı Merkezi(telefon) ve MKKweb Yatırımcı(internet) sistemini nasıl kullanacağınızı www.mkk.com.tr adresinde yer alan MKKweb Yatırımcı Kullanım Kılavuzu ve AloMKK Yatırımcı Sesli Yanıt Sistemi Kullanıcı Kılavuzu 'ndan öğrenebilirsiniz.</t>
+  </si>
+  <si>
+    <t>Türkiye İş Bankası A.Ş.   Ticaret Sicil No: 431112   Şirket Merkezi: İstanbul   www.isbank.com.tr   0 850 724 0 724</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000080"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -599,7 +571,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -607,121 +579,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -780,14 +701,30 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -802,11 +739,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -827,29 +770,319 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.12"/>
+    <col min="1" max="2" width="13.42578125" style="2"/>
+    <col min="3" max="3" width="3.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2"/>
+    <col min="5" max="5" width="26.5703125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="13.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -858,7 +1091,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -867,7 +1100,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -876,7 +1109,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -885,55 +1118,55 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -952,7 +1185,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -971,7 +1204,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
@@ -990,7 +1223,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1009,7 +1242,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
@@ -1028,7 +1261,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -1047,16 +1280,16 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>36</v>
       </c>
@@ -1069,7 +1302,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>38</v>
       </c>
@@ -1082,7 +1315,7 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>40</v>
       </c>
@@ -1093,7 +1326,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>41</v>
       </c>
@@ -1104,7 +1337,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>42</v>
       </c>
@@ -1115,7 +1348,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>43</v>
       </c>
@@ -1126,18 +1359,18 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -1160,7 +1393,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>50</v>
       </c>
@@ -1175,7 +1408,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>53</v>
       </c>
@@ -1196,7 +1429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
@@ -1219,7 +1452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>63</v>
       </c>
@@ -1240,7 +1473,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>63</v>
       </c>
@@ -1263,7 +1496,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>63</v>
       </c>
@@ -1284,7 +1517,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>63</v>
       </c>
@@ -1307,7 +1540,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>78</v>
       </c>
@@ -1328,7 +1561,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>82</v>
       </c>
@@ -1351,7 +1584,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>82</v>
       </c>
@@ -1374,7 +1607,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>89</v>
       </c>
@@ -1397,7 +1630,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>94</v>
       </c>
@@ -1420,7 +1653,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>97</v>
       </c>
@@ -1441,7 +1674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>97</v>
       </c>
@@ -1464,7 +1697,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>103</v>
       </c>
@@ -1485,7 +1718,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>103</v>
       </c>
@@ -1508,7 +1741,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>109</v>
       </c>
@@ -1531,7 +1764,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>112</v>
       </c>
@@ -1554,7 +1787,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>112</v>
       </c>
@@ -1575,7 +1808,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>119</v>
       </c>
@@ -1596,7 +1829,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>122</v>
       </c>
@@ -1617,7 +1850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>124</v>
       </c>
@@ -1632,7 +1865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>126</v>
       </c>
@@ -1643,18 +1876,18 @@
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>45</v>
       </c>
@@ -1677,7 +1910,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -1696,7 +1929,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>82</v>
       </c>
@@ -1719,7 +1952,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>124</v>
       </c>
@@ -1738,7 +1971,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>50</v>
       </c>
@@ -1757,7 +1990,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>89</v>
       </c>
@@ -1780,7 +2013,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>124</v>
       </c>
@@ -1799,7 +2032,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>50</v>
       </c>
@@ -1818,7 +2051,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>94</v>
       </c>
@@ -1841,7 +2074,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>124</v>
       </c>
@@ -1860,7 +2093,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>50</v>
       </c>
@@ -1879,7 +2112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>109</v>
       </c>
@@ -1902,7 +2135,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>124</v>
       </c>
@@ -1921,7 +2154,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>50</v>
       </c>
@@ -1940,7 +2173,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>63</v>
       </c>
@@ -1963,7 +2196,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>103</v>
       </c>
@@ -1986,7 +2219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>124</v>
       </c>
@@ -2005,7 +2238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>50</v>
       </c>
@@ -2024,7 +2257,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>63</v>
       </c>
@@ -2047,7 +2280,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>112</v>
       </c>
@@ -2070,7 +2303,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>124</v>
       </c>
@@ -2089,7 +2322,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -2098,7 +2331,7 @@
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
         <v>153</v>
       </c>
@@ -2109,7 +2342,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
         <v>154</v>
       </c>
@@ -2120,7 +2353,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -2129,7 +2362,7 @@
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>155</v>
       </c>
@@ -2142,53 +2375,48 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A1:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A73:G73"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A73" r:id="rId1" display="Türkiye İş Bankası A.Ş.   Ticaret Sicil No: 431112   Şirket Merkezi: İstanbul   www.isbank.com.tr   0 850 724 0 724"/>
+    <hyperlink ref="A73" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>